--- a/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
+++ b/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T08:47:14+00:00</t>
+    <t>2025-01-14T09:24:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
+++ b/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T09:24:03+00:00</t>
+    <t>2025-01-14T09:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
+++ b/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T09:28:50+00:00</t>
+    <t>2025-01-15T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
+++ b/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T09:27:54+00:00</t>
+    <t>2025-01-16T10:05:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
+++ b/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T10:05:28+00:00</t>
+    <t>2025-02-17T10:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
+++ b/179-contenu-gestion-du-nir-numéro-de-sécurité-sociale/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T10:17:20+00:00</t>
+    <t>2025-02-17T10:27:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
